--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E8" s="3">
         <v>164500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>176400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168800</v>
       </c>
-      <c r="G8" s="3">
-        <v>162700</v>
-      </c>
       <c r="H8" s="3">
+        <v>163000</v>
+      </c>
+      <c r="I8" s="3">
         <v>134600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>131600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>123900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E9" s="3">
         <v>143900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>162100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149900</v>
       </c>
-      <c r="G9" s="3">
-        <v>137900</v>
-      </c>
       <c r="H9" s="3">
+        <v>138900</v>
+      </c>
+      <c r="I9" s="3">
         <v>115800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>110000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>89900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E10" s="3">
         <v>20600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18900</v>
       </c>
-      <c r="G10" s="3">
-        <v>24800</v>
-      </c>
       <c r="H10" s="3">
+        <v>24100</v>
+      </c>
+      <c r="I10" s="3">
         <v>18800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
       </c>
       <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
         <v>1400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1100</v>
       </c>
       <c r="N12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,19 +949,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -958,20 +978,23 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E17" s="3">
         <v>162200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>184100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>168000</v>
       </c>
-      <c r="G17" s="3">
-        <v>154300</v>
-      </c>
       <c r="H17" s="3">
+        <v>154600</v>
+      </c>
+      <c r="I17" s="3">
         <v>129000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>122400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>101300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,46 +1146,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1226,11 @@
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>9200</v>
-      </c>
       <c r="H27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1464,37 +1525,40 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,46 +1962,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54300</v>
+        <v>43500</v>
       </c>
       <c r="E43" s="3">
-        <v>44800</v>
+        <v>54600</v>
       </c>
       <c r="F43" s="3">
+        <v>46300</v>
+      </c>
+      <c r="G43" s="3">
         <v>48800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,107 +2044,116 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5800</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
-        <v>9600</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E46" s="3">
         <v>64400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>62000</v>
       </c>
       <c r="H46" s="3">
         <v>62000</v>
       </c>
       <c r="I46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J46" s="3">
         <v>43900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>3500</v>
       </c>
       <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -2062,46 +2167,52 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,16 +2223,16 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2138,8 +2249,11 @@
       <c r="N49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
-        <v>1400</v>
-      </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E54" s="3">
         <v>82500</v>
       </c>
-      <c r="E54" s="3">
-        <v>73800</v>
-      </c>
       <c r="F54" s="3">
+        <v>75100</v>
+      </c>
+      <c r="G54" s="3">
         <v>71100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>68100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,224 +2490,240 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2800</v>
       </c>
       <c r="M57" s="3">
         <v>2800</v>
       </c>
       <c r="N57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E58" s="3">
         <v>51800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E59" s="3">
         <v>45400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>22700</v>
       </c>
       <c r="N59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E60" s="3">
         <v>103300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>45400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>700</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -2586,10 +2732,13 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E66" s="3">
         <v>113900</v>
       </c>
-      <c r="E66" s="3">
-        <v>108600</v>
-      </c>
       <c r="F66" s="3">
+        <v>109900</v>
+      </c>
+      <c r="G66" s="3">
         <v>97300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>80800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>104100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-31400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-34900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-26200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-26900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-31900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-33600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-45400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-42200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-43500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-39100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,8 +3675,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3499,8 +3716,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3735,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,8 +3856,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3667,8 +3897,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,8 +4078,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3873,8 +4119,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,8 +4160,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3947,6 +4199,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E8" s="3">
         <v>168800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>164500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>176400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>163000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>131600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>123900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>85000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E9" s="3">
         <v>146600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>162100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>138900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>110000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>89900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
         <v>22200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,49 +883,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1200</v>
       </c>
       <c r="L12" s="3">
         <v>1200</v>
       </c>
       <c r="M12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N12" s="3">
         <v>1400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1100</v>
       </c>
       <c r="O12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,22 +969,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -981,20 +1001,23 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E17" s="3">
         <v>174500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>162200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>168000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>129000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>122400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>101300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,49 +1180,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,31 +1266,34 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,13 +1574,16 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1531,34 +1592,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E41" s="3">
         <v>52400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,49 +2055,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
         <v>43500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>45300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2047,90 +2143,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E46" s="3">
         <v>103100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>62000</v>
       </c>
       <c r="I46" s="3">
         <v>62000</v>
       </c>
       <c r="J46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K46" s="3">
         <v>43900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,25 +2243,25 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>3500</v>
       </c>
       <c r="I47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -2170,49 +2275,55 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,16 +2337,16 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2252,8 +2363,11 @@
       <c r="O49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E54" s="3">
         <v>123400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>71100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,172 +2621,185 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2800</v>
       </c>
       <c r="N57" s="3">
         <v>2800</v>
       </c>
       <c r="O57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
         <v>25300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E59" s="3">
         <v>44400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>22700</v>
       </c>
       <c r="O59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E60" s="3">
         <v>75500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>45400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,69 +2807,72 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E62" s="3">
         <v>9300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -2735,10 +2881,13 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E66" s="3">
         <v>157500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>113900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>97300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>80800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>104100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>80700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-34100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-31400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-34900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-26200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-26900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-31900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-33600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-45400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-42200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-43500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-39100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,8 +3892,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3719,8 +3936,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,8 +3956,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,8 +4086,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3900,8 +4130,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,8 +4324,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4122,8 +4368,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,8 +4412,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4202,6 +4454,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E8" s="3">
         <v>126100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>164500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>176400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>163000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>85000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>89900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E9" s="3">
         <v>111300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>146600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>162100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>149900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>138900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>110000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>89900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,52 +897,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1200</v>
       </c>
       <c r="M12" s="3">
         <v>1200</v>
       </c>
       <c r="N12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O12" s="3">
         <v>1400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1100</v>
       </c>
       <c r="P12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,25 +989,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1004,20 +1024,23 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E17" s="3">
         <v>134700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>174500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>162200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>184100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>168000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>154600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>129000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>122400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>101300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,52 +1214,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1269,16 +1306,19 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
+      <c r="E22" s="3">
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1295,8 +1335,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,16 +1635,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1595,34 +1656,37 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E41" s="3">
         <v>49600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,52 +2148,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2146,125 +2242,134 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E46" s="3">
         <v>93300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>67200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>62000</v>
       </c>
       <c r="J46" s="3">
         <v>62000</v>
       </c>
       <c r="K46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="L46" s="3">
         <v>43900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="E47" s="3">
         <v>2100</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>3500</v>
       </c>
       <c r="J47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
@@ -2278,52 +2383,58 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,16 +2451,16 @@
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2366,8 +2477,11 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E54" s="3">
         <v>113400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,260 +2752,276 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>9000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
       </c>
       <c r="O57" s="3">
         <v>2800</v>
       </c>
       <c r="P57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E59" s="3">
         <v>58600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>22700</v>
       </c>
       <c r="P59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E60" s="3">
         <v>75600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -2884,10 +3030,13 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E66" s="3">
         <v>158100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>157500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>113900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>97300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>97600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>99900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>104100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-44700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-34100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-31400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-34900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-26200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-26900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-31900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-33600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-45400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-42200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-43500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-39100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,8 +4109,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3939,8 +4156,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,8 +4177,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,8 +4316,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4133,8 +4363,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,8 +4570,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4371,8 +4617,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,8 +4664,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4457,6 +4709,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,208 +679,234 @@
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>154400</v>
+      </c>
+      <c r="F8" s="3">
         <v>122300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>126100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>168800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>164500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>176400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>168800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>163000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>134600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>131600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>123900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>102000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>85000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>89900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>93300</v>
+      </c>
+      <c r="F9" s="3">
         <v>85200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>111300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>146600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>143900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>162100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>149900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>138900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>115800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>112900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>110000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>89900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>77900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>77600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F10" s="3">
         <v>37100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>14800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>20600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>13900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,55 +924,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,31 +1026,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>1600</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>1600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1027,8 +1067,8 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1039,8 +1079,14 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1132,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1154,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>121700</v>
+      </c>
+      <c r="F17" s="3">
         <v>105700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>134700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>174500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>162200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>184100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>168000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>154600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>129000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>125300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>122400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>101300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>89500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>87700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F18" s="3">
         <v>16600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,55 +1281,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,22 +1383,28 @@
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -1338,11 +1418,11 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1356,102 +1436,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F23" s="3">
         <v>15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1595,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F26" s="3">
         <v>15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F27" s="3">
         <v>14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1754,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,44 +1771,50 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-4500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1860,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1913,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F33" s="3">
         <v>14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +2072,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F35" s="3">
         <v>14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2208,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2229,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F41" s="3">
         <v>51600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>49600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>52400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,55 +2331,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>52900</v>
+      </c>
+      <c r="F43" s="3">
         <v>36600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>43500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>54600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>46300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>48800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>45300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>45000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>37100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>24700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>21000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,137 +2437,155 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F45" s="3">
         <v>28400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>174600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>161400</v>
+      </c>
+      <c r="F46" s="3">
         <v>116600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>93300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>103100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>64400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>67200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>62600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>62000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>62000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>43900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>55500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>33000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -2386,55 +2596,67 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F48" s="3">
         <v>18500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>15000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2454,19 +2676,19 @@
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2480,8 +2702,14 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2755,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2808,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2914,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>184200</v>
+      </c>
+      <c r="F54" s="3">
         <v>140400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>113400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>123400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>75100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>71100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>70800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>68100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>47200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>42300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2992,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,196 +3013,222 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>25300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>51800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>12600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>18100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>18800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>11400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>12900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F59" s="3">
         <v>47500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>58600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>44400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>45400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>56100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>40000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>41100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>41400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>33900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>30500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>25600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>22700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F60" s="3">
         <v>59300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>75600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>75500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>103300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>75100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>62500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>59200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>63500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>45400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>60100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>45000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>41300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>35500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,93 +3236,105 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>33200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>34700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>37600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>35900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>34500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>43900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>39400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>39200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>38500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F62" s="3">
         <v>35000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3380,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3433,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3486,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>201100</v>
+      </c>
+      <c r="F66" s="3">
         <v>169400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>158100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>157500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>113900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>109900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>97300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>97600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>99900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>80800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>104100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>84600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>80700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>74100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3564,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3613,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3666,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3719,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3772,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-68600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-83500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-73000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-65600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-65000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-55400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-58400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-59600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-65200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-61900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-61400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3878,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3931,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3984,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-29000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-44700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-34100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-31400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-34900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-26200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-26900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-31900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-33600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-45400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-42200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-43500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +4090,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F81" s="3">
         <v>14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4226,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4275,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4328,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4381,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4434,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4487,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,8 +4540,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4159,8 +4593,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4618,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4225,8 +4667,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4720,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,8 +4773,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4366,8 +4826,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4851,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4900,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4953,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +5006,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,8 +5059,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4620,8 +5112,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,8 +5165,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4712,6 +5216,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E8" s="3">
         <v>170500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>154400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>168800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>163000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>102000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>85000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>89900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E9" s="3">
         <v>116500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>146600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>149900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>138900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>110000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>89900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E10" s="3">
         <v>54000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,52 +949,55 @@
         <v>6600</v>
       </c>
       <c r="E12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1200</v>
       </c>
       <c r="P12" s="3">
         <v>1200</v>
       </c>
       <c r="Q12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R12" s="3">
         <v>1400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1100</v>
       </c>
       <c r="S12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,34 +1049,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1073,20 +1093,23 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>151200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>134700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>184100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>154600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>129000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>122400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>101300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,61 +1316,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,25 +1426,28 @@
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1424,8 +1464,8 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>18400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,8 +1838,8 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1787,34 +1848,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E41" s="3">
         <v>88800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,61 +2427,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E43" s="3">
         <v>55100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2443,152 +2539,161 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E45" s="3">
         <v>30700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E46" s="3">
         <v>174600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>116600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>93300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>62000</v>
       </c>
       <c r="M46" s="3">
         <v>62000</v>
       </c>
       <c r="N46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="O46" s="3">
         <v>43900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>55500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
       </c>
       <c r="K47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>3500</v>
       </c>
       <c r="M47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -2602,66 +2707,72 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
         <v>16600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -2682,16 +2793,16 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -2708,8 +2819,11 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E54" s="3">
         <v>195900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>184200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>140400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,61 +3145,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2800</v>
       </c>
       <c r="R57" s="3">
         <v>2800</v>
       </c>
       <c r="S57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,160 +3214,169 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>8100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>51800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E59" s="3">
         <v>54800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>22700</v>
       </c>
       <c r="S59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E60" s="3">
         <v>60900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>60100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
@@ -3242,87 +3385,90 @@
         <v>1200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E62" s="3">
         <v>49200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3331,10 +3477,13 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E66" s="3">
         <v>201500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>201100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>157500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>113900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>80800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>80700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,8 +3949,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3787,52 +3961,55 @@
         <v>-33800</v>
       </c>
       <c r="E72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-57200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-29000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-44700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-34100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-31400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-34900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-26200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-26900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-31900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-33600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-45400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-43500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-39100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,8 +4760,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4599,8 +4816,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,8 +4840,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4673,8 +4894,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,8 +5006,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4832,8 +5062,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,8 +5308,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5118,8 +5364,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,8 +5420,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5222,6 +5474,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E8" s="3">
         <v>156000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>170500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>154400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>168800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>164500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>163000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>85000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>89900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E9" s="3">
         <v>119100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>116500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>110000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>89900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>77600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E10" s="3">
         <v>36900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>12100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,64 +953,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
         <v>6600</v>
       </c>
       <c r="F12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1200</v>
       </c>
       <c r="Q12" s="3">
         <v>1200</v>
       </c>
       <c r="R12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S12" s="3">
         <v>1400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1100</v>
       </c>
       <c r="T12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,37 +1069,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1096,20 +1116,23 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,8 +1209,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1192,55 +1219,58 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
+        <v>153600</v>
+      </c>
+      <c r="F17" s="3">
         <v>151200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>105700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>134700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>174500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>154600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>129000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>122400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>101300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,55 +1278,58 @@
         <v>10</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,8 +1350,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1326,55 +1360,58 @@
         <v>10</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,13 +1466,16 @@
       <c r="T21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1444,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1467,8 +1507,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,8 +1702,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1662,55 +1714,58 @@
         <v>10</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1718,55 +1773,58 @@
         <v>10</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>12100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,8 +1902,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1851,34 +1912,37 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1998,55 +2068,58 @@
         <v>10</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2054,55 +2127,58 @@
         <v>10</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>12100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,8 +2233,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2166,116 +2245,122 @@
         <v>10</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>12100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E41" s="3">
         <v>81200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,64 +2520,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E43" s="3">
         <v>56500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2542,161 +2638,170 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E45" s="3">
         <v>27700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E46" s="3">
         <v>165400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>174600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>116600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>64400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>62000</v>
       </c>
       <c r="N46" s="3">
         <v>62000</v>
       </c>
       <c r="O46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="P46" s="3">
         <v>43900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>55500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
       <c r="L47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>3500</v>
       </c>
       <c r="N47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -2710,64 +2815,70 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2775,7 +2886,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2796,16 +2907,16 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
+        <v>700</v>
+      </c>
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -2822,8 +2933,11 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
       <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E54" s="3">
         <v>186500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>195900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>184200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>140400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,69 +3276,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2800</v>
       </c>
       <c r="S57" s="3">
         <v>2800</v>
       </c>
       <c r="T57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3217,161 +3351,170 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>8100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>51800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E59" s="3">
         <v>54200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>25600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>22700</v>
       </c>
       <c r="T59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E60" s="3">
         <v>61600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>45400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3379,7 +3522,7 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
@@ -3388,90 +3531,93 @@
         <v>1200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E62" s="3">
         <v>39800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3480,10 +3626,13 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102300</v>
+        <v>105600</v>
       </c>
       <c r="E66" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F66" s="3">
         <v>201500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>201100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>113900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>97300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>80800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>104100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>80700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33800</v>
+        <v>-38500</v>
       </c>
       <c r="E72" s="3">
         <v>-33800</v>
       </c>
       <c r="F72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-45900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-29000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-44700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-34100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-31400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-34900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-26200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-26900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-31900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-33600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-42200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-43500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-39100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,69 +4477,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4358,55 +4553,58 @@
         <v>10</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>12100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,8 +4977,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4819,8 +5036,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,8 +5061,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4897,8 +5118,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,8 +5236,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5065,8 +5295,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,8 +5554,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5367,8 +5613,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5423,8 +5672,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5477,6 +5729,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -1215,8 +1215,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>175000</v>
       </c>
       <c r="E17" s="3">
         <v>153600</v>
@@ -1274,8 +1274,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-6000</v>
       </c>
       <c r="E18" s="3">
         <v>2400</v>
@@ -1356,8 +1356,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1710,8 +1710,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-5200</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1769,8 +1769,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-4700</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2064,8 +2064,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2123,8 +2123,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-4700</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2241,8 +2241,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-4700</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50900</v>
+        <v>75500</v>
       </c>
       <c r="E41" s="3">
         <v>81200</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>11700</v>
       </c>
       <c r="E52" s="3">
         <v>3600</v>
@@ -3814,7 +3814,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105600</v>
+        <v>195600</v>
       </c>
       <c r="E66" s="3">
         <v>192600</v>
@@ -4549,8 +4549,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-4700</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ICTSF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>ICTSF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E8" s="3">
         <v>169000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>156000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>170500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>154400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>168800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>168800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>163000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>123900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>85000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>89900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E9" s="3">
         <v>142100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>119100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>116500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>146600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>162100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>149900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>110000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>89900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>77900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E10" s="3">
         <v>26900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,67 +967,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6600</v>
       </c>
       <c r="F12" s="3">
         <v>6600</v>
       </c>
       <c r="G12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1200</v>
       </c>
       <c r="R12" s="3">
         <v>1200</v>
       </c>
       <c r="S12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T12" s="3">
         <v>1400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1100</v>
       </c>
       <c r="U12" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1072,40 +1089,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1119,20 +1139,23 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>205900</v>
+      </c>
+      <c r="E17" s="3">
         <v>175000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>153600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>105700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>134700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>174500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>184100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>154600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>129000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>122400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>101300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>89500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>87700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,67 +1384,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1469,8 +1506,11 @@
       <c r="U21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1487,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1510,8 +1550,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1528,126 +1568,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1905,8 +1966,8 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1915,34 +1976,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2491,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E41" s="3">
         <v>75500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>51600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,67 +2613,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E43" s="3">
         <v>54300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2641,170 +2737,179 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>25700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E46" s="3">
         <v>155500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>165400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>174600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>116600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>93300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>103100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>62600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>62000</v>
       </c>
       <c r="O46" s="3">
         <v>62000</v>
       </c>
       <c r="P46" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>43900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>55500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>2100</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
       <c r="M47" s="3">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>3500</v>
       </c>
       <c r="O47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
@@ -2818,78 +2923,84 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
         <v>16500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2910,16 +3021,16 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
+        <v>700</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -2936,8 +3047,11 @@
       <c r="U49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1000</v>
       </c>
       <c r="N52" s="3">
         <v>1000</v>
       </c>
       <c r="O52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
       </c>
       <c r="T52" s="3">
+        <v>500</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E54" s="3">
         <v>184600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>186500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>195900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>184200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>140400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>113400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,75 +3407,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2800</v>
       </c>
       <c r="T57" s="3">
         <v>2800</v>
       </c>
       <c r="U57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3354,178 +3488,187 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>8100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E59" s="3">
         <v>59500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>25600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>22700</v>
       </c>
       <c r="U59" s="3">
         <v>22700</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E60" s="3">
         <v>68300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>103300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>45400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>1100</v>
       </c>
       <c r="F61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1200</v>
@@ -3534,93 +3677,96 @@
         <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>39200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>38500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E62" s="3">
         <v>35600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -3629,10 +3775,13 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E66" s="3">
         <v>195600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>201500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>201100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>157500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>113900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>80800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>80700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>76100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-33800</v>
       </c>
       <c r="F72" s="3">
         <v>-33800</v>
       </c>
       <c r="G72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-45900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-65200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-61200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-16900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-29000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-44700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-34100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-31400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-34900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-26200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-26900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-31900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-45400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-42200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-43500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-39100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41820</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,8 +4824,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4685,8 +4884,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,8 +5194,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5039,8 +5256,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,8 +5282,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5121,8 +5342,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,8 +5466,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5298,8 +5528,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,8 +5554,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5380,8 +5614,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,8 +5800,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5616,8 +5862,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5675,8 +5924,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5732,6 +5984,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
